--- a/state_results/lakes_data_file.xlsx
+++ b/state_results/lakes_data_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:U206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,26 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Freshwater Management Unit</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Water management Zone</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Water management Subzone</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>units</t>
         </is>
       </c>
@@ -581,6 +601,26 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -646,6 +686,26 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -711,6 +771,26 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -775,6 +855,26 @@
         <v>5502170.80623</v>
       </c>
       <c r="Q5" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -833,6 +933,26 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -890,6 +1010,26 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -951,6 +1091,26 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -1012,6 +1172,26 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -1077,6 +1257,26 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -1142,6 +1342,26 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -1207,6 +1427,26 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -1271,6 +1511,26 @@
         <v>5558593.04122</v>
       </c>
       <c r="Q13" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -1329,6 +1589,26 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -1386,6 +1666,26 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -1447,6 +1747,26 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -1508,6 +1828,26 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -1573,6 +1913,26 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -1638,6 +1998,26 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -1703,6 +2083,26 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -1767,6 +2167,26 @@
         <v>5502170.80623</v>
       </c>
       <c r="Q21" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -1825,6 +2245,26 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -1882,6 +2322,26 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -1943,6 +2403,26 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -2004,6 +2484,26 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -2069,6 +2569,26 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -2134,6 +2654,26 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -2199,6 +2739,26 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -2263,6 +2823,26 @@
         <v>5572535.10786</v>
       </c>
       <c r="Q29" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -2321,6 +2901,26 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -2378,6 +2978,26 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -2439,6 +3059,26 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -2500,6 +3140,26 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -2565,6 +3225,26 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -2630,6 +3310,26 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -2695,6 +3395,26 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -2759,6 +3479,26 @@
         <v>5572955.19428</v>
       </c>
       <c r="Q37" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -2817,6 +3557,26 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -2874,6 +3634,26 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -2935,6 +3715,26 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -2996,6 +3796,26 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -3061,6 +3881,26 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -3126,6 +3966,26 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -3191,6 +4051,26 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -3255,6 +4135,26 @@
         <v>5558593.04122</v>
       </c>
       <c r="Q45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -3313,6 +4213,26 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -3370,6 +4290,26 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -3431,6 +4371,26 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -3492,6 +4452,26 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -3557,6 +4537,26 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -3622,6 +4622,26 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -3687,6 +4707,26 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -3751,6 +4791,26 @@
         <v>5502170.80623</v>
       </c>
       <c r="Q53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -3809,6 +4869,26 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -3866,6 +4946,26 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -3927,6 +5027,26 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -3988,6 +5108,26 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -4053,6 +5193,26 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -4118,6 +5278,26 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -4183,6 +5363,26 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -4247,6 +5447,26 @@
         <v>5572535.10786</v>
       </c>
       <c r="Q61" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -4305,6 +5525,26 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -4362,6 +5602,26 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -4423,6 +5683,26 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -4484,6 +5764,26 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -4549,6 +5849,26 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -4614,6 +5934,26 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -4679,6 +6019,26 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -4743,6 +6103,26 @@
         <v>5572955.19428</v>
       </c>
       <c r="Q69" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -4801,6 +6181,26 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -4858,6 +6258,26 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -4919,6 +6339,26 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -4980,6 +6420,26 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -5037,6 +6497,26 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -5102,6 +6582,26 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -5167,6 +6667,26 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -5232,6 +6752,26 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -5296,6 +6836,26 @@
         <v>5558593.04122</v>
       </c>
       <c r="Q78" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -5354,6 +6914,26 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -5411,6 +6991,26 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -5466,7 +7066,27 @@
       <c r="P81" t="n">
         <v>5558593.04122</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5525,6 +7145,26 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -5586,6 +7226,26 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -5651,6 +7311,26 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -5716,6 +7396,26 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -5781,6 +7481,26 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -5845,6 +7565,26 @@
         <v>5502170.80623</v>
       </c>
       <c r="Q87" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -5903,6 +7643,26 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -5960,6 +7720,26 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -6021,6 +7801,26 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6082,6 +7882,26 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6139,6 +7959,26 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -6204,6 +8044,26 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -6269,6 +8129,26 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -6334,6 +8214,26 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -6398,6 +8298,26 @@
         <v>5572535.10786</v>
       </c>
       <c r="Q96" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -6456,6 +8376,26 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -6513,6 +8453,26 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -6568,7 +8528,27 @@
       <c r="P99" t="n">
         <v>5572535.10786</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6627,6 +8607,26 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6688,6 +8688,26 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6745,6 +8765,26 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -6806,6 +8846,26 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6867,6 +8927,26 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -6924,6 +9004,26 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -6989,6 +9089,26 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -7054,6 +9174,26 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -7119,6 +9259,26 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -7183,6 +9343,26 @@
         <v>5572955.19428</v>
       </c>
       <c r="Q109" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -7241,6 +9421,26 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -7298,6 +9498,26 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -7353,7 +9573,27 @@
       <c r="P112" t="n">
         <v>5572955.19428</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7412,6 +9652,26 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -7473,6 +9733,26 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -7530,6 +9810,26 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -7587,6 +9887,26 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -7648,6 +9968,26 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -7709,6 +10049,26 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -7766,6 +10126,26 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -7831,6 +10211,26 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -7896,6 +10296,26 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -7961,6 +10381,26 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -8025,6 +10465,26 @@
         <v>5558593.04122</v>
       </c>
       <c r="Q123" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -8083,6 +10543,26 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -8140,6 +10620,26 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -8195,7 +10695,27 @@
       <c r="P126" t="n">
         <v>5558593.04122</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8254,6 +10774,26 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8315,6 +10855,26 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8372,6 +10932,26 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -8429,6 +11009,26 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -8490,6 +11090,26 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8551,6 +11171,26 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8608,6 +11248,26 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -8665,6 +11325,26 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -8726,6 +11406,26 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8787,6 +11487,26 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -8844,6 +11564,26 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -8909,6 +11649,26 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -8974,6 +11734,26 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -9039,6 +11819,26 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -9103,6 +11903,26 @@
         <v>5502170.80623</v>
       </c>
       <c r="Q141" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -9161,6 +11981,26 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -9218,6 +12058,26 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -9273,7 +12133,27 @@
       <c r="P144" t="n">
         <v>5502170.80623</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9332,6 +12212,26 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9393,6 +12293,26 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9450,6 +12370,26 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -9507,6 +12447,26 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -9568,6 +12528,26 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9629,6 +12609,26 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9686,6 +12686,26 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -9743,6 +12763,26 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -9804,6 +12844,26 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9865,6 +12925,26 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -9922,6 +13002,26 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -9979,6 +13079,26 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -10040,6 +13160,26 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -10101,6 +13241,26 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -10158,6 +13318,26 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -10223,6 +13403,26 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -10288,6 +13488,26 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -10353,6 +13573,26 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -10417,6 +13657,26 @@
         <v>5572535.10786</v>
       </c>
       <c r="Q163" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -10475,6 +13735,26 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -10532,6 +13812,26 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -10587,7 +13887,27 @@
       <c r="P166" t="n">
         <v>5572535.10786</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10646,6 +13966,26 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -10707,6 +14047,26 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -10772,6 +14132,26 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -10837,6 +14217,26 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -10902,6 +14302,26 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -10966,6 +14386,26 @@
         <v>5565177.69684</v>
       </c>
       <c r="Q172" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -11024,6 +14464,26 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -11081,6 +14541,26 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -11142,6 +14622,26 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11203,6 +14703,26 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11260,6 +14780,26 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Lower Whanganui</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Whai_7b</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -11317,6 +14857,26 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Lower Whanganui</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Whai_7b</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -11378,6 +14938,26 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Lower Whanganui</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Whai_7b</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11439,6 +15019,26 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Lower Whanganui</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Whai_7b</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11496,6 +15096,26 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -11553,6 +15173,26 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -11614,6 +15254,26 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11675,6 +15335,26 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Southern Whanganui Lakes</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>West_5</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -11732,6 +15412,26 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
           <t>mg chl-a /m3</t>
         </is>
       </c>
@@ -11797,6 +15497,26 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -11862,6 +15582,26 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -11927,6 +15667,26 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -11991,6 +15751,26 @@
         <v>5572955.19428</v>
       </c>
       <c r="Q189" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -12049,6 +15829,26 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -12106,6 +15906,26 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -12161,7 +15981,27 @@
       <c r="P192" t="n">
         <v>5572955.19428</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12220,6 +16060,26 @@
       </c>
       <c r="Q193" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -12281,6 +16141,26 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -12338,6 +16218,26 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -12395,6 +16295,26 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -12456,6 +16376,26 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -12517,6 +16457,26 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -12582,6 +16542,26 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
           <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
@@ -12647,6 +16627,26 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
           <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
@@ -12712,6 +16712,26 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
           <t>E. coli/100 mL</t>
         </is>
       </c>
@@ -12776,6 +16796,26 @@
         <v>5531867.42326</v>
       </c>
       <c r="Q202" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
         <is>
           <t>E. coli/100 mL</t>
         </is>
@@ -12834,6 +16874,26 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
           <t>mg NH4-N/L</t>
         </is>
       </c>
@@ -12891,6 +16951,26 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
           <t>mg NO3-N/L</t>
         </is>
       </c>
@@ -12952,6 +17032,26 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
@@ -13013,6 +17113,26 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
           <t>g/m3</t>
         </is>
       </c>
